--- a/label_library.xlsx
+++ b/label_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17511ACA-A035-49D3-871B-57F8DDDE8E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2B13C2-A197-400C-9B37-9AB3AEBAAF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10335" yWindow="6945" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="510">
   <si>
     <t>Product Name</t>
   </si>
@@ -1014,6 +1014,561 @@
   </si>
   <si>
     <t>0119339687212085</t>
+  </si>
+  <si>
+    <t>Cls FK Pump,Feta &amp; Wlnt 4x265g</t>
+  </si>
+  <si>
+    <t>599574</t>
+  </si>
+  <si>
+    <t>Cls Chkn BLT Sld Bwl 4 x 315g</t>
+  </si>
+  <si>
+    <t>599700</t>
+  </si>
+  <si>
+    <t>ClsFK Green Goddess Sld 4x300g</t>
+  </si>
+  <si>
+    <t>599572</t>
+  </si>
+  <si>
+    <t>Cls Chckn Caesar Bwl 4 x 265g</t>
+  </si>
+  <si>
+    <t>599699</t>
+  </si>
+  <si>
+    <t>Cls GrkStyl SldBl 6x300g (TAS)</t>
+  </si>
+  <si>
+    <t>599672T</t>
+  </si>
+  <si>
+    <t>Cls Greek Style Sld Bwl 6x300g</t>
+  </si>
+  <si>
+    <t>599672</t>
+  </si>
+  <si>
+    <t>PMF Ultimate Pasta Sld 6x600g</t>
+  </si>
+  <si>
+    <t>599755</t>
+  </si>
+  <si>
+    <t>PMF Ultimate Pasta 6x600g TAS</t>
+  </si>
+  <si>
+    <t>599755T</t>
+  </si>
+  <si>
+    <t>PMF Ultimate Pasta 6x600g SA</t>
+  </si>
+  <si>
+    <t>599755S</t>
+  </si>
+  <si>
+    <t>PMF Broot,Ftta&amp;Walnut 6x400g</t>
+  </si>
+  <si>
+    <t>599754</t>
+  </si>
+  <si>
+    <t>PMF Rainbow Crnch 6x350g SA</t>
+  </si>
+  <si>
+    <t>599753S</t>
+  </si>
+  <si>
+    <t>PMF Rainbow Crnch 6x350g TAS</t>
+  </si>
+  <si>
+    <t>599753T</t>
+  </si>
+  <si>
+    <t>PMF Rainbow Crnch Sld 6x350g</t>
+  </si>
+  <si>
+    <t>599753</t>
+  </si>
+  <si>
+    <t>LK Caesar Bowl 6 x 250g</t>
+  </si>
+  <si>
+    <t>200453N</t>
+  </si>
+  <si>
+    <t>LK Asian Bowl 6 x 250g</t>
+  </si>
+  <si>
+    <t>200454N</t>
+  </si>
+  <si>
+    <t>Aldi Cut Watermelon 6 x 600g</t>
+  </si>
+  <si>
+    <t>598406</t>
+  </si>
+  <si>
+    <t>Qts Dom Beef Kale Tab 12x260g</t>
+  </si>
+  <si>
+    <t>599783</t>
+  </si>
+  <si>
+    <t>Qts Int Beef Sharw 12x300g</t>
+  </si>
+  <si>
+    <t>599786</t>
+  </si>
+  <si>
+    <t>Qts Dom Chkn Pesto 12 x 250g</t>
+  </si>
+  <si>
+    <t>599784</t>
+  </si>
+  <si>
+    <t>Qts Int Jap Poke 12x300g</t>
+  </si>
+  <si>
+    <t>599788</t>
+  </si>
+  <si>
+    <t>Qts Dom Jap Poke Sld 12 x 260g</t>
+  </si>
+  <si>
+    <t>599785</t>
+  </si>
+  <si>
+    <t>Cls Egg &amp; Spinach Pot 4 x 100g</t>
+  </si>
+  <si>
+    <t>597012</t>
+  </si>
+  <si>
+    <t>Cls Grain Hommus Pot 4 x 230g</t>
+  </si>
+  <si>
+    <t>597018</t>
+  </si>
+  <si>
+    <t>Cls Pesto Risoni Pot 4 x 190g</t>
+  </si>
+  <si>
+    <t>597020</t>
+  </si>
+  <si>
+    <t>Cls Caesar Pasta Pot 4 x 220g</t>
+  </si>
+  <si>
+    <t>597019</t>
+  </si>
+  <si>
+    <t>Cls Singapore S/Fry 4x450g</t>
+  </si>
+  <si>
+    <t>570349</t>
+  </si>
+  <si>
+    <t>Cls Honey Soy S/Fry 4x530g</t>
+  </si>
+  <si>
+    <t>570350</t>
+  </si>
+  <si>
+    <t>Cls Superfood Pot 6 x 200g</t>
+  </si>
+  <si>
+    <t>597011</t>
+  </si>
+  <si>
+    <t>Cls Grn Goddess Pot 6 x 200g</t>
+  </si>
+  <si>
+    <t>597010</t>
+  </si>
+  <si>
+    <t>Aldi Asian Bowl 7 x 230g</t>
+  </si>
+  <si>
+    <t>200305N</t>
+  </si>
+  <si>
+    <t>Cls Roast Tub 4x700g</t>
+  </si>
+  <si>
+    <t>570343</t>
+  </si>
+  <si>
+    <t>Cls R/Melon Slices 4 x 700g</t>
+  </si>
+  <si>
+    <t>598332</t>
+  </si>
+  <si>
+    <t>Cls W/Melon Fingers 4 x 750g</t>
+  </si>
+  <si>
+    <t>598331</t>
+  </si>
+  <si>
+    <t>WW Csar SldBwl 6x200g 1917620</t>
+  </si>
+  <si>
+    <t>200485N</t>
+  </si>
+  <si>
+    <t>Cls Carrot French Onion 4x220g</t>
+  </si>
+  <si>
+    <t>598121</t>
+  </si>
+  <si>
+    <t>Cls Pineapple REG 4 x 170g</t>
+  </si>
+  <si>
+    <t>598328</t>
+  </si>
+  <si>
+    <t>Cls Fruit Medley 4 x 350g</t>
+  </si>
+  <si>
+    <t>598330</t>
+  </si>
+  <si>
+    <t>Cls FK Watermelon 4 x 350g</t>
+  </si>
+  <si>
+    <t>598239</t>
+  </si>
+  <si>
+    <t>Cls FK Seas Fruit Sld 4 x 350g</t>
+  </si>
+  <si>
+    <t>598235</t>
+  </si>
+  <si>
+    <t>Cls FK Pineapple 4 x 350g</t>
+  </si>
+  <si>
+    <t>598233</t>
+  </si>
+  <si>
+    <t>Cls FK Watermelon 4 x 170g</t>
+  </si>
+  <si>
+    <t>598258</t>
+  </si>
+  <si>
+    <t>Cls Rock+Hdew Melon REG 6x170g</t>
+  </si>
+  <si>
+    <t>598319</t>
+  </si>
+  <si>
+    <t>Cls Seasonal Fruit REG 6x170g</t>
+  </si>
+  <si>
+    <t>598320</t>
+  </si>
+  <si>
+    <t>Cls Car, Cel &amp; Hummus 4 x 220g</t>
+  </si>
+  <si>
+    <t>598118</t>
+  </si>
+  <si>
+    <t>WW Broot&amp;FetaBwl6x200g 1917660</t>
+  </si>
+  <si>
+    <t>200487N</t>
+  </si>
+  <si>
+    <t>WW Cobb Sld Bwl 6x240g 1917651</t>
+  </si>
+  <si>
+    <t>200486N</t>
+  </si>
+  <si>
+    <t>WW Mexcn SldBwl 6x220g (TAS)</t>
+  </si>
+  <si>
+    <t>200488T</t>
+  </si>
+  <si>
+    <t>WW Mexcn SldBwl 6x220g 1917640</t>
+  </si>
+  <si>
+    <t>200488N</t>
+  </si>
+  <si>
+    <t>WW Ckn Caesar Bwl (Ins) 6x180g</t>
+  </si>
+  <si>
+    <t>200275N</t>
+  </si>
+  <si>
+    <t>WW Grn Gdness Bwl (Ins) 6x240g</t>
+  </si>
+  <si>
+    <t>200274N</t>
+  </si>
+  <si>
+    <t>WW AsnStySldBwl6x230g 1917611</t>
+  </si>
+  <si>
+    <t>200484N</t>
+  </si>
+  <si>
+    <t>WW Asian Sld Bowl 6 x 250g</t>
+  </si>
+  <si>
+    <t>200253N</t>
+  </si>
+  <si>
+    <t>WW Caesar Bowl 6 x 250g</t>
+  </si>
+  <si>
+    <t>200214N</t>
+  </si>
+  <si>
+    <t>9310645389929</t>
+  </si>
+  <si>
+    <t>5486227</t>
+  </si>
+  <si>
+    <t>9310645466804</t>
+  </si>
+  <si>
+    <t>8772222</t>
+  </si>
+  <si>
+    <t>9310645466514</t>
+  </si>
+  <si>
+    <t>8772211</t>
+  </si>
+  <si>
+    <t>9310645466507</t>
+  </si>
+  <si>
+    <t>8772197</t>
+  </si>
+  <si>
+    <t>19339562013868</t>
+  </si>
+  <si>
+    <t>9339562011966</t>
+  </si>
+  <si>
+    <t>19339562013875</t>
+  </si>
+  <si>
+    <t>4061461198541</t>
+  </si>
+  <si>
+    <t>9310645279930</t>
+  </si>
+  <si>
+    <t>19310645279937</t>
+  </si>
+  <si>
+    <t>9310645279886</t>
+  </si>
+  <si>
+    <t>19310645279883</t>
+  </si>
+  <si>
+    <t>9310645321868</t>
+  </si>
+  <si>
+    <t>19310645321865</t>
+  </si>
+  <si>
+    <t>9310645279879</t>
+  </si>
+  <si>
+    <t>19310645279876</t>
+  </si>
+  <si>
+    <t>9964138</t>
+  </si>
+  <si>
+    <t>9310645460604</t>
+  </si>
+  <si>
+    <t>9310645349954</t>
+  </si>
+  <si>
+    <t>4509123</t>
+  </si>
+  <si>
+    <t>8057453</t>
+  </si>
+  <si>
+    <t>9310645455433</t>
+  </si>
+  <si>
+    <t>9310645443768</t>
+  </si>
+  <si>
+    <t>7548890</t>
+  </si>
+  <si>
+    <t>9310645443751</t>
+  </si>
+  <si>
+    <t>7548802</t>
+  </si>
+  <si>
+    <t>9310645446431</t>
+  </si>
+  <si>
+    <t>19310645446438</t>
+  </si>
+  <si>
+    <t>0119310645446421</t>
+  </si>
+  <si>
+    <t>9310645446424</t>
+  </si>
+  <si>
+    <t>9310645349961</t>
+  </si>
+  <si>
+    <t>4509190</t>
+  </si>
+  <si>
+    <t>9310645353531</t>
+  </si>
+  <si>
+    <t>19310645353538</t>
+  </si>
+  <si>
+    <t>0119310645446407</t>
+  </si>
+  <si>
+    <t>9310645446400</t>
+  </si>
+  <si>
+    <t>9310645460598</t>
+  </si>
+  <si>
+    <t>9964207</t>
+  </si>
+  <si>
+    <t>9310645425016</t>
+  </si>
+  <si>
+    <t>19310645425013</t>
+  </si>
+  <si>
+    <t>9310645363004</t>
+  </si>
+  <si>
+    <t>19310645363001</t>
+  </si>
+  <si>
+    <t>8771004</t>
+  </si>
+  <si>
+    <t>9310645232638</t>
+  </si>
+  <si>
+    <t>7864370</t>
+  </si>
+  <si>
+    <t>9310645232607</t>
+  </si>
+  <si>
+    <t>7864391</t>
+  </si>
+  <si>
+    <t>9310645354033</t>
+  </si>
+  <si>
+    <t>19310645354030</t>
+  </si>
+  <si>
+    <t>9310645362991</t>
+  </si>
+  <si>
+    <t>19310645362998</t>
+  </si>
+  <si>
+    <t>9310645363011</t>
+  </si>
+  <si>
+    <t>19310645363018</t>
+  </si>
+  <si>
+    <t>9310645252551</t>
+  </si>
+  <si>
+    <t>19310645252558</t>
+  </si>
+  <si>
+    <t>9339687265411</t>
+  </si>
+  <si>
+    <t>0119339687265418</t>
+  </si>
+  <si>
+    <t>9339687265428</t>
+  </si>
+  <si>
+    <t>0119339687265425</t>
+  </si>
+  <si>
+    <t>9339687265459</t>
+  </si>
+  <si>
+    <t>0119339687265456</t>
+  </si>
+  <si>
+    <t>9339687265435</t>
+  </si>
+  <si>
+    <t>0119339687265432</t>
+  </si>
+  <si>
+    <t>9300633683542</t>
+  </si>
+  <si>
+    <t>0119300633683549</t>
+  </si>
+  <si>
+    <t>9339687106080</t>
+  </si>
+  <si>
+    <t>0119339687106087</t>
+  </si>
+  <si>
+    <t>9339687265442</t>
+  </si>
+  <si>
+    <t>0119339687265449</t>
+  </si>
+  <si>
+    <t>9300633145484</t>
+  </si>
+  <si>
+    <t>0119339687238641</t>
+  </si>
+  <si>
+    <t>9300633098315</t>
+  </si>
+  <si>
+    <t>0119339687238634</t>
+  </si>
+  <si>
+    <t>4088700092583</t>
+  </si>
+  <si>
+    <t>4061461820299</t>
   </si>
 </sst>
 </file>
@@ -1433,13 +1988,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1450,9 +2005,12 @@
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
+    <row r="1" spans="1:12" ht="17.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1471,8 +2029,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.25">
       <c r="A2" s="10" t="s">
         <v>110</v>
       </c>
@@ -1487,8 +2047,10 @@
       <c r="F2" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.25">
       <c r="A3" s="11" t="s">
         <v>103</v>
       </c>
@@ -1503,8 +2065,10 @@
       <c r="F3" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1519,8 +2083,10 @@
       <c r="F4" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.25">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="17.25">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1535,8 +2101,10 @@
       <c r="F5" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.25">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.25">
       <c r="A6" s="10" t="s">
         <v>113</v>
       </c>
@@ -1551,8 +2119,10 @@
       <c r="F6" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.25">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="17.25">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1567,8 +2137,10 @@
       <c r="F7" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.25">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.25">
       <c r="A8" s="10" t="s">
         <v>119</v>
       </c>
@@ -1579,8 +2151,10 @@
       <c r="F8" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.25">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="17.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1591,8 +2165,10 @@
       <c r="F9" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.25">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.25">
       <c r="A10" s="10" t="s">
         <v>111</v>
       </c>
@@ -1605,8 +2181,10 @@
       <c r="F10" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.25">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.25">
       <c r="A11" s="10" t="s">
         <v>106</v>
       </c>
@@ -1621,8 +2199,10 @@
       <c r="F11" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.25">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.25">
       <c r="A12" s="10" t="s">
         <v>94</v>
       </c>
@@ -1637,8 +2217,10 @@
       <c r="F12" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.25">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="17.25">
       <c r="A13" s="10" t="s">
         <v>107</v>
       </c>
@@ -1653,8 +2235,10 @@
       <c r="F13" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="17.25">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.25">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
@@ -1667,8 +2251,10 @@
       <c r="F14" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.25">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="17.25">
       <c r="A15" s="10" t="s">
         <v>93</v>
       </c>
@@ -1681,8 +2267,10 @@
       <c r="F15" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="17.25">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="17.25">
       <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
@@ -1695,8 +2283,10 @@
       <c r="F16" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="17.25">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.25">
       <c r="A17" s="8" t="s">
         <v>12</v>
       </c>
@@ -1709,8 +2299,10 @@
       <c r="F17" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="17.25">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="17.25">
       <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
@@ -1725,8 +2317,10 @@
       <c r="F18" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="17.25">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="17.25">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
@@ -1741,8 +2335,10 @@
       <c r="F19" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="17.25">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="17.25">
       <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
@@ -1757,8 +2353,10 @@
       <c r="F20" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="17.25">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="17.25">
       <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
@@ -1773,8 +2371,10 @@
       <c r="F21" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="17.25">
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="17.25">
       <c r="A22" s="8" t="s">
         <v>17</v>
       </c>
@@ -1789,8 +2389,10 @@
       <c r="F22" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="17.25">
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="17.25">
       <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
@@ -1805,8 +2407,10 @@
       <c r="F23" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="17.25">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="17.25">
       <c r="A24" s="8" t="s">
         <v>19</v>
       </c>
@@ -1821,8 +2425,10 @@
       <c r="F24" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="17.25">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="17.25">
       <c r="A25" s="10" t="s">
         <v>115</v>
       </c>
@@ -1835,8 +2441,10 @@
       <c r="F25" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.25">
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="17.25">
       <c r="A26" s="10" t="s">
         <v>101</v>
       </c>
@@ -1851,8 +2459,10 @@
       <c r="F26" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="17.25">
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="17.25">
       <c r="A27" s="10" t="s">
         <v>97</v>
       </c>
@@ -1867,8 +2477,10 @@
       <c r="F27" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="17.25">
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" ht="17.25">
       <c r="A28" s="10" t="s">
         <v>100</v>
       </c>
@@ -1883,8 +2495,10 @@
       <c r="F28" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="17.25">
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" ht="17.25">
       <c r="A29" s="8" t="s">
         <v>20</v>
       </c>
@@ -1897,8 +2511,10 @@
       <c r="F29" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="17.25">
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" ht="17.25">
       <c r="A30" s="8" t="s">
         <v>21</v>
       </c>
@@ -1913,8 +2529,10 @@
       <c r="F30" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="17.25">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="17.25">
       <c r="A31" s="8" t="s">
         <v>22</v>
       </c>
@@ -1929,8 +2547,10 @@
       <c r="F31" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="17.25">
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="17.25">
       <c r="A32" s="8" t="s">
         <v>23</v>
       </c>
@@ -1943,8 +2563,10 @@
       <c r="F32" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="17.25">
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" ht="17.25">
       <c r="A33" s="8" t="s">
         <v>24</v>
       </c>
@@ -1959,8 +2581,10 @@
       <c r="F33" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="17.25">
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" ht="17.25">
       <c r="A34" s="8" t="s">
         <v>25</v>
       </c>
@@ -1971,8 +2595,10 @@
       <c r="F34" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="17.25">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" ht="17.25">
       <c r="A35" s="8" t="s">
         <v>26</v>
       </c>
@@ -1983,8 +2609,10 @@
       <c r="F35" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="17.25">
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" ht="17.25">
       <c r="A36" s="8" t="s">
         <v>27</v>
       </c>
@@ -1995,8 +2623,10 @@
       <c r="F36" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="17.25">
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" ht="17.25">
       <c r="A37" s="8" t="s">
         <v>28</v>
       </c>
@@ -2009,8 +2639,10 @@
       <c r="F37" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="17.25">
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" ht="17.25">
       <c r="A38" s="10" t="s">
         <v>95</v>
       </c>
@@ -2025,8 +2657,10 @@
       <c r="F38" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="17.25">
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" ht="17.25">
       <c r="A39" s="10" t="s">
         <v>108</v>
       </c>
@@ -2041,8 +2675,10 @@
       <c r="F39" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="17.25">
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" ht="17.25">
       <c r="A40" s="10" t="s">
         <v>112</v>
       </c>
@@ -2055,8 +2691,10 @@
       <c r="F40" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="17.25">
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" ht="17.25">
       <c r="A41" s="8" t="s">
         <v>29</v>
       </c>
@@ -2069,8 +2707,10 @@
       <c r="F41" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="17.25">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" ht="17.25">
       <c r="A42" s="10" t="s">
         <v>116</v>
       </c>
@@ -2083,8 +2723,10 @@
       <c r="F42" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="17.25">
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" ht="17.25">
       <c r="A43" s="8" t="s">
         <v>30</v>
       </c>
@@ -2097,8 +2739,10 @@
       <c r="F43" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="17.25">
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" ht="17.25">
       <c r="A44" s="8" t="s">
         <v>31</v>
       </c>
@@ -2111,8 +2755,10 @@
       <c r="F44" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="17.25">
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" ht="17.25">
       <c r="A45" s="8" t="s">
         <v>32</v>
       </c>
@@ -2125,8 +2771,10 @@
       <c r="F45" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="17.25">
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" ht="17.25">
       <c r="A46" s="8" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2789,10 @@
       <c r="F46" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="17.25">
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" ht="17.25">
       <c r="A47" s="8" t="s">
         <v>34</v>
       </c>
@@ -2155,8 +2805,10 @@
       <c r="F47" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="17.25">
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" ht="17.25">
       <c r="A48" s="8" t="s">
         <v>35</v>
       </c>
@@ -2171,8 +2823,10 @@
       <c r="F48" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="17.25">
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" ht="17.25">
       <c r="A49" s="8" t="s">
         <v>36</v>
       </c>
@@ -2187,8 +2841,10 @@
       <c r="F49" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="17.25">
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" ht="17.25">
       <c r="A50" s="8" t="s">
         <v>37</v>
       </c>
@@ -2203,8 +2859,10 @@
       <c r="F50" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="17.25">
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" ht="17.25">
       <c r="A51" s="8" t="s">
         <v>38</v>
       </c>
@@ -2217,8 +2875,10 @@
       <c r="F51" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="17.25">
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" ht="17.25">
       <c r="A52" s="10" t="s">
         <v>96</v>
       </c>
@@ -2233,8 +2893,10 @@
       <c r="F52" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="17.25">
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" ht="17.25">
       <c r="A53" s="10" t="s">
         <v>102</v>
       </c>
@@ -2249,8 +2911,10 @@
       <c r="F53" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="17.25">
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" ht="17.25">
       <c r="A54" s="8" t="s">
         <v>39</v>
       </c>
@@ -2261,8 +2925,10 @@
       <c r="F54" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="17.25">
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" ht="17.25">
       <c r="A55" s="8" t="s">
         <v>40</v>
       </c>
@@ -2273,8 +2939,10 @@
       <c r="F55" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="17.25">
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" ht="17.25">
       <c r="A56" s="8" t="s">
         <v>41</v>
       </c>
@@ -2287,8 +2955,10 @@
       <c r="F56" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="17.25">
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" ht="17.25">
       <c r="A57" s="10" t="s">
         <v>117</v>
       </c>
@@ -2299,8 +2969,10 @@
       <c r="F57" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="17.25">
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" ht="17.25">
       <c r="A58" s="10" t="s">
         <v>118</v>
       </c>
@@ -2313,8 +2985,10 @@
       <c r="F58" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="17.25">
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" ht="17.25">
       <c r="A59" s="8" t="s">
         <v>42</v>
       </c>
@@ -2325,8 +2999,10 @@
       <c r="F59" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="17.25">
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" ht="17.25">
       <c r="A60" s="8" t="s">
         <v>43</v>
       </c>
@@ -2337,8 +3013,10 @@
       <c r="F60" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="17.25">
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" ht="17.25">
       <c r="A61" s="8" t="s">
         <v>44</v>
       </c>
@@ -2349,8 +3027,10 @@
       <c r="F61" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="17.25">
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" ht="17.25">
       <c r="A62" s="8" t="s">
         <v>45</v>
       </c>
@@ -2361,8 +3041,10 @@
       <c r="F62" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="17.25">
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" ht="17.25">
       <c r="A63" s="8" t="s">
         <v>46</v>
       </c>
@@ -2373,8 +3055,10 @@
       <c r="F63" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="17.25">
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:12" ht="17.25">
       <c r="A64" s="8" t="s">
         <v>47</v>
       </c>
@@ -2387,8 +3071,10 @@
       <c r="F64" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="17.25">
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" ht="17.25">
       <c r="A65" s="8" t="s">
         <v>48</v>
       </c>
@@ -2399,8 +3085,10 @@
       <c r="F65" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="17.25">
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" ht="17.25">
       <c r="A66" s="8" t="s">
         <v>49</v>
       </c>
@@ -2413,8 +3101,10 @@
       <c r="F66" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="17.25">
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12" ht="17.25">
       <c r="A67" s="8" t="s">
         <v>50</v>
       </c>
@@ -2427,8 +3117,10 @@
       <c r="F67" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="17.25">
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12" ht="17.25">
       <c r="A68" s="8" t="s">
         <v>51</v>
       </c>
@@ -2441,8 +3133,10 @@
       <c r="F68" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="17.25">
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12" ht="17.25">
       <c r="A69" s="8" t="s">
         <v>52</v>
       </c>
@@ -2453,8 +3147,10 @@
       <c r="F69" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="17.25">
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12" ht="17.25">
       <c r="A70" s="8" t="s">
         <v>53</v>
       </c>
@@ -2465,8 +3161,10 @@
       <c r="F70" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="17.25">
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12" ht="17.25">
       <c r="A71" s="8" t="s">
         <v>54</v>
       </c>
@@ -2477,8 +3175,10 @@
       <c r="F71" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="17.25">
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="1:12" ht="17.25">
       <c r="A72" s="8" t="s">
         <v>55</v>
       </c>
@@ -2489,8 +3189,10 @@
       <c r="F72" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="17.25">
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+    </row>
+    <row r="73" spans="1:12" ht="17.25">
       <c r="A73" s="8" t="s">
         <v>56</v>
       </c>
@@ -2505,8 +3207,10 @@
       <c r="F73" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="17.25">
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+    </row>
+    <row r="74" spans="1:12" ht="17.25">
       <c r="A74" s="8" t="s">
         <v>57</v>
       </c>
@@ -2518,7 +3222,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17.25">
+    <row r="75" spans="1:12" ht="17.25">
       <c r="A75" s="8" t="s">
         <v>58</v>
       </c>
@@ -2534,7 +3238,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="17.25">
+    <row r="76" spans="1:12" ht="17.25">
       <c r="A76" s="8" t="s">
         <v>59</v>
       </c>
@@ -2550,7 +3254,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="17.25">
+    <row r="77" spans="1:12" ht="17.25">
       <c r="A77" s="8" t="s">
         <v>60</v>
       </c>
@@ -2566,7 +3270,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.25">
+    <row r="78" spans="1:12" ht="17.25">
       <c r="A78" s="8" t="s">
         <v>61</v>
       </c>
@@ -2582,7 +3286,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="17.25">
+    <row r="79" spans="1:12" ht="17.25">
       <c r="A79" s="8" t="s">
         <v>62</v>
       </c>
@@ -2596,7 +3300,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="17.25">
+    <row r="80" spans="1:12" ht="17.25">
       <c r="A80" s="8" t="s">
         <v>105</v>
       </c>
@@ -2958,6 +3662,827 @@
       </c>
       <c r="F102" s="2" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17.25">
+      <c r="A103" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17.25">
+      <c r="A104" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17.25">
+      <c r="A105" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17.25">
+      <c r="A106" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17.25">
+      <c r="A107" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17.25">
+      <c r="A108" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17.25">
+      <c r="A109" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17.25">
+      <c r="A110" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="17.25">
+      <c r="A111" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17.25">
+      <c r="A112" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17.25">
+      <c r="A113" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17.25">
+      <c r="A114" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17.25">
+      <c r="A115" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="17.25">
+      <c r="A116" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="17.25">
+      <c r="A117" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="17.25">
+      <c r="A118" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="17.25">
+      <c r="A119" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17.25">
+      <c r="A120" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="17.25">
+      <c r="A121" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17.25">
+      <c r="A122" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="17.25">
+      <c r="A123" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="17.25">
+      <c r="A124" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="17.25">
+      <c r="A125" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="17.25">
+      <c r="A126" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="17.25">
+      <c r="A127" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17.25">
+      <c r="A128" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="17.25">
+      <c r="A129" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="17.25">
+      <c r="A130" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" spans="1:8" ht="17.25">
+      <c r="A131" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="17.25">
+      <c r="A132" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="17.25">
+      <c r="A133" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="17.25">
+      <c r="A134" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="17.25">
+      <c r="A135" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="17.25">
+      <c r="A136" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="17.25">
+      <c r="A137" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="17.25">
+      <c r="A138" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="17.25">
+      <c r="A139" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="17.25">
+      <c r="A140" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="17.25">
+      <c r="A141" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="17.25">
+      <c r="A142" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="17.25">
+      <c r="A143" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="17.25">
+      <c r="A144" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="17.25">
+      <c r="A145" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="17.25">
+      <c r="A146" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="17.25">
+      <c r="A147" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="17.25">
+      <c r="A148" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="17.25">
+      <c r="A149" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="17.25">
+      <c r="A150" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="17.25">
+      <c r="A151" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="17.25">
+      <c r="A152" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="17.25">
+      <c r="A153" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="17.25">
+      <c r="A154" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="17.25">
+      <c r="A155" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2967,8 +4492,6 @@
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/label_library.xlsx
+++ b/label_library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2B13C2-A197-400C-9B37-9AB3AEBAAF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E0C40D-7AA0-4ABA-98AB-0667B2887121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="6945" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,9 +257,6 @@
     <t>9300633731151</t>
   </si>
   <si>
-    <t>0119300633731158</t>
-  </si>
-  <si>
     <t>WW Pasta Sld 6 x 800g '23</t>
   </si>
   <si>
@@ -287,12 +284,6 @@
     <t>9300633731168</t>
   </si>
   <si>
-    <t>0119300633731165</t>
-  </si>
-  <si>
-    <t>0119300633626522</t>
-  </si>
-  <si>
     <t>9300633626525</t>
   </si>
   <si>
@@ -314,9 +305,6 @@
     <t>4061463443731</t>
   </si>
   <si>
-    <t>0119300633699496</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -407,9 +395,6 @@
     <t>9300633987015</t>
   </si>
   <si>
-    <t>0119300633994669</t>
-  </si>
-  <si>
     <t>4061459928037</t>
   </si>
   <si>
@@ -431,9 +416,6 @@
     <t>9339687257195</t>
   </si>
   <si>
-    <t>0119339687257192</t>
-  </si>
-  <si>
     <t>9339562011782</t>
   </si>
   <si>
@@ -461,15 +443,9 @@
     <t>9300633731175</t>
   </si>
   <si>
-    <t>0119300633731172</t>
-  </si>
-  <si>
     <t>9339687354382</t>
   </si>
   <si>
-    <t>0119339687354389</t>
-  </si>
-  <si>
     <t>9310645389820</t>
   </si>
   <si>
@@ -491,15 +467,9 @@
     <t>9300633731182</t>
   </si>
   <si>
-    <t>0119300633731189</t>
-  </si>
-  <si>
     <t>9339687343744</t>
   </si>
   <si>
-    <t>0119339687343741</t>
-  </si>
-  <si>
     <t>9310645389813</t>
   </si>
   <si>
@@ -515,15 +485,9 @@
     <t>9339687257256</t>
   </si>
   <si>
-    <t>0119339687257253</t>
-  </si>
-  <si>
     <t>9339687343737</t>
   </si>
   <si>
-    <t>0119339687343734</t>
-  </si>
-  <si>
     <t>19339562008208</t>
   </si>
   <si>
@@ -575,9 +539,6 @@
     <t>9300633626501</t>
   </si>
   <si>
-    <t>0119300633626508</t>
-  </si>
-  <si>
     <t>9339562011812</t>
   </si>
   <si>
@@ -599,9 +560,6 @@
     <t>9339687343768</t>
   </si>
   <si>
-    <t>0119339687343765</t>
-  </si>
-  <si>
     <t>4088700203897</t>
   </si>
   <si>
@@ -620,15 +578,9 @@
     <t>9339687343782</t>
   </si>
   <si>
-    <t>0119339687343789</t>
-  </si>
-  <si>
     <t>9300633626518</t>
   </si>
   <si>
-    <t>0119300633626515</t>
-  </si>
-  <si>
     <t>9339562011843</t>
   </si>
   <si>
@@ -644,9 +596,6 @@
     <t>9339687343812</t>
   </si>
   <si>
-    <t>0119339687343819</t>
-  </si>
-  <si>
     <t>9310645391076</t>
   </si>
   <si>
@@ -656,9 +605,6 @@
     <t>9339687357932</t>
   </si>
   <si>
-    <t>0119339687357939</t>
-  </si>
-  <si>
     <t>19310645244720</t>
   </si>
   <si>
@@ -668,9 +614,6 @@
     <t>9300633225674</t>
   </si>
   <si>
-    <t>0119300633225923</t>
-  </si>
-  <si>
     <t>4088700203903</t>
   </si>
   <si>
@@ -1010,12 +953,6 @@
     <t>9339687343751</t>
   </si>
   <si>
-    <t>0119339687343758</t>
-  </si>
-  <si>
-    <t>0119339687212085</t>
-  </si>
-  <si>
     <t>Cls FK Pump,Feta &amp; Wlnt 4x265g</t>
   </si>
   <si>
@@ -1430,9 +1367,6 @@
     <t>19310645446438</t>
   </si>
   <si>
-    <t>0119310645446421</t>
-  </si>
-  <si>
     <t>9310645446424</t>
   </si>
   <si>
@@ -1448,9 +1382,6 @@
     <t>19310645353538</t>
   </si>
   <si>
-    <t>0119310645446407</t>
-  </si>
-  <si>
     <t>9310645446400</t>
   </si>
   <si>
@@ -1514,61 +1445,130 @@
     <t>9339687265411</t>
   </si>
   <si>
-    <t>0119339687265418</t>
-  </si>
-  <si>
     <t>9339687265428</t>
   </si>
   <si>
-    <t>0119339687265425</t>
-  </si>
-  <si>
     <t>9339687265459</t>
   </si>
   <si>
-    <t>0119339687265456</t>
-  </si>
-  <si>
     <t>9339687265435</t>
   </si>
   <si>
-    <t>0119339687265432</t>
-  </si>
-  <si>
     <t>9300633683542</t>
   </si>
   <si>
-    <t>0119300633683549</t>
-  </si>
-  <si>
     <t>9339687106080</t>
   </si>
   <si>
-    <t>0119339687106087</t>
-  </si>
-  <si>
     <t>9339687265442</t>
   </si>
   <si>
-    <t>0119339687265449</t>
-  </si>
-  <si>
     <t>9300633145484</t>
   </si>
   <si>
-    <t>0119339687238641</t>
-  </si>
-  <si>
     <t>9300633098315</t>
   </si>
   <si>
-    <t>0119339687238634</t>
-  </si>
-  <si>
     <t>4088700092583</t>
   </si>
   <si>
     <t>4061461820299</t>
+  </si>
+  <si>
+    <t>19300633225923</t>
+  </si>
+  <si>
+    <t>19300633626508</t>
+  </si>
+  <si>
+    <t>19300633626515</t>
+  </si>
+  <si>
+    <t>19300633626522</t>
+  </si>
+  <si>
+    <t>19300633683549</t>
+  </si>
+  <si>
+    <t>19300633699496</t>
+  </si>
+  <si>
+    <t>19300633731158</t>
+  </si>
+  <si>
+    <t>19300633731165</t>
+  </si>
+  <si>
+    <t>19300633731172</t>
+  </si>
+  <si>
+    <t>19300633731189</t>
+  </si>
+  <si>
+    <t>19300633994669</t>
+  </si>
+  <si>
+    <t>19310645446407</t>
+  </si>
+  <si>
+    <t>19310645446421</t>
+  </si>
+  <si>
+    <t>19339687106087</t>
+  </si>
+  <si>
+    <t>19339687212085</t>
+  </si>
+  <si>
+    <t>19339687238634</t>
+  </si>
+  <si>
+    <t>19339687238641</t>
+  </si>
+  <si>
+    <t>19339687257192</t>
+  </si>
+  <si>
+    <t>19339687257253</t>
+  </si>
+  <si>
+    <t>19339687265418</t>
+  </si>
+  <si>
+    <t>19339687265425</t>
+  </si>
+  <si>
+    <t>19339687265432</t>
+  </si>
+  <si>
+    <t>19339687265449</t>
+  </si>
+  <si>
+    <t>19339687265456</t>
+  </si>
+  <si>
+    <t>19339687343734</t>
+  </si>
+  <si>
+    <t>19339687343741</t>
+  </si>
+  <si>
+    <t>19339687343758</t>
+  </si>
+  <si>
+    <t>19339687343765</t>
+  </si>
+  <si>
+    <t>19339687343789</t>
+  </si>
+  <si>
+    <t>19339687343819</t>
+  </si>
+  <si>
+    <t>19339687354389</t>
+  </si>
+  <si>
+    <t>19339687357939</t>
   </si>
 </sst>
 </file>
@@ -1991,10 +1991,10 @@
   <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E156" sqref="E156"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2033,2099 +2033,2097 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="17.25">
-      <c r="A2" s="10" t="s">
-        <v>110</v>
+      <c r="A2" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>476</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>124</v>
+        <v>477</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="17.25">
-      <c r="A3" s="11" t="s">
-        <v>103</v>
+      <c r="A3" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="17.25">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
+      <c r="A4" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="17.25">
       <c r="A5" s="8" t="s">
-        <v>7</v>
+        <v>334</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>421</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>421</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="17.25">
-      <c r="A6" s="10" t="s">
-        <v>113</v>
+      <c r="A6" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="17.25">
       <c r="A7" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="17.25">
       <c r="A8" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="17.25">
       <c r="A9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="17.25">
       <c r="A10" s="10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="17.25">
-      <c r="A11" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="17.25">
-      <c r="A12" s="10" t="s">
-        <v>94</v>
+      <c r="A12" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>198</v>
+        <v>440</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>199</v>
+        <v>441</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>288</v>
+        <v>353</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="17.25">
-      <c r="A13" s="10" t="s">
-        <v>107</v>
+      <c r="A13" s="8" t="s">
+        <v>390</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>147</v>
+        <v>465</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>148</v>
+        <v>466</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="17.25">
       <c r="A14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>450</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>170</v>
+        <v>451</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>257</v>
+        <v>373</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="17.25">
-      <c r="A15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="A15" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>428</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>170</v>
+        <v>429</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="17.25">
       <c r="A16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>426</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>190</v>
+        <v>427</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="17.25">
-      <c r="A17" s="8" t="s">
-        <v>12</v>
+      <c r="A17" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="17.25">
-      <c r="A18" s="8" t="s">
-        <v>13</v>
+      <c r="A18" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="17.25">
-      <c r="A19" s="8" t="s">
-        <v>14</v>
+      <c r="A19" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="17.25">
-      <c r="A20" s="8" t="s">
-        <v>15</v>
+      <c r="A20" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="17.25">
       <c r="A21" s="8" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>155</v>
+        <v>445</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>156</v>
+        <v>446</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" ht="17.25">
       <c r="A22" s="8" t="s">
-        <v>17</v>
+        <v>382</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>457</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>458</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>289</v>
+        <v>383</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" ht="17.25">
       <c r="A23" s="8" t="s">
-        <v>18</v>
+        <v>304</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>424</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>88</v>
+        <v>425</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" ht="17.25">
       <c r="A24" s="8" t="s">
-        <v>19</v>
+        <v>380</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>168</v>
+        <v>455</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>169</v>
+        <v>456</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>300</v>
+        <v>381</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" ht="17.25">
-      <c r="A25" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="2"/>
+      <c r="A25" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>191</v>
+        <v>460</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>264</v>
+        <v>385</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" ht="17.25">
-      <c r="A26" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="A26" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>296</v>
+        <v>379</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" ht="17.25">
-      <c r="A27" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="A27" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>176</v>
+        <v>454</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>297</v>
+        <v>377</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" ht="17.25">
-      <c r="A28" s="10" t="s">
-        <v>100</v>
+      <c r="A28" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>137</v>
+        <v>442</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>138</v>
+        <v>490</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" ht="17.25">
       <c r="A29" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" ht="17.25">
-      <c r="A30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="A30" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" ht="17.25">
       <c r="A31" s="8" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>173</v>
+        <v>410</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>174</v>
+        <v>411</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="17.25">
       <c r="A32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>410</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>181</v>
+        <v>411</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" ht="17.25">
       <c r="A33" s="8" t="s">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>162</v>
+        <v>432</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>163</v>
+        <v>433</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>229</v>
+        <v>361</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" ht="17.25">
       <c r="A34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" ht="17.25">
       <c r="A35" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>305</v>
+        <v>235</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" ht="17.25">
       <c r="A36" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>306</v>
+        <v>244</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" ht="17.25">
       <c r="A37" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>313</v>
+        <v>121</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12" ht="17.25">
-      <c r="A38" s="10" t="s">
-        <v>95</v>
+      <c r="A38" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" ht="17.25">
-      <c r="A39" s="10" t="s">
-        <v>108</v>
+      <c r="A39" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12" ht="17.25">
-      <c r="A40" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="2"/>
+      <c r="A40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" ht="17.25">
       <c r="A41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>314</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" ht="17.25">
-      <c r="A42" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="2"/>
+      <c r="A42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:12" ht="17.25">
       <c r="A43" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>447</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>315</v>
+        <v>489</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>256</v>
+        <v>351</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" ht="17.25">
       <c r="A44" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>452</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>134</v>
+        <v>453</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>259</v>
+        <v>375</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12" ht="17.25">
       <c r="A45" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12" ht="17.25">
-      <c r="A46" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="A46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12" ht="17.25">
-      <c r="A47" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="2"/>
+      <c r="A47" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>316</v>
+        <v>136</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12" ht="17.25">
-      <c r="A48" s="8" t="s">
-        <v>35</v>
+      <c r="A48" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>318</v>
+        <v>163</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>317</v>
+        <v>164</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
     <row r="49" spans="1:12" ht="17.25">
-      <c r="A49" s="8" t="s">
-        <v>36</v>
+      <c r="A49" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>319</v>
+        <v>131</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="1:12" ht="17.25">
       <c r="A50" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12" ht="17.25">
       <c r="A51" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>436</v>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>164</v>
+        <v>437</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>267</v>
+        <v>367</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:12" ht="17.25">
-      <c r="A52" s="10" t="s">
-        <v>96</v>
+      <c r="A52" s="8" t="s">
+        <v>364</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>145</v>
+        <v>435</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>146</v>
+        <v>434</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" ht="17.25">
-      <c r="A53" s="10" t="s">
-        <v>102</v>
+      <c r="A53" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>127</v>
+        <v>461</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>128</v>
+        <v>462</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>281</v>
+        <v>387</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12" ht="17.25">
       <c r="A54" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" ht="17.25">
       <c r="A55" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>463</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>226</v>
+        <v>389</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
     <row r="56" spans="1:12" ht="17.25">
       <c r="A56" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>431</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>184</v>
+        <v>430</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>225</v>
+        <v>355</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
     <row r="57" spans="1:12" ht="17.25">
-      <c r="A57" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" s="2"/>
+      <c r="A57" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>443</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>444</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>221</v>
+        <v>359</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" ht="17.25">
-      <c r="A58" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="2"/>
+      <c r="A58" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>183</v>
+        <v>439</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:12" ht="17.25">
       <c r="A59" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12" ht="17.25">
       <c r="A60" s="8" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
     </row>
     <row r="61" spans="1:12" ht="17.25">
       <c r="A61" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>422</v>
+      </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>423</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>228</v>
+        <v>309</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12" ht="17.25">
       <c r="A62" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:12" ht="17.25">
       <c r="A63" s="8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
     <row r="64" spans="1:12" ht="17.25">
       <c r="A64" s="8" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
     <row r="65" spans="1:12" ht="17.25">
       <c r="A65" s="8" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12" ht="17.25">
       <c r="A66" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>419</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>161</v>
+        <v>420</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
     <row r="67" spans="1:12" ht="17.25">
       <c r="A67" s="8" t="s">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>133</v>
+        <v>418</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:12" ht="17.25">
       <c r="A68" s="8" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
     </row>
     <row r="69" spans="1:12" ht="17.25">
-      <c r="A69" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B69" s="2"/>
+      <c r="A69" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
     </row>
     <row r="70" spans="1:12" ht="17.25">
-      <c r="A70" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="2"/>
+      <c r="A70" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="F70" s="2" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
     </row>
     <row r="71" spans="1:12" ht="17.25">
-      <c r="A71" s="8" t="s">
-        <v>54</v>
+      <c r="A71" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
     </row>
     <row r="72" spans="1:12" ht="17.25">
       <c r="A72" s="8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
     </row>
     <row r="73" spans="1:12" ht="17.25">
-      <c r="A73" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="A73" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
     </row>
     <row r="74" spans="1:12" ht="17.25">
       <c r="A74" s="8" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>311</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="17.25">
       <c r="A75" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>185</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="17.25">
       <c r="A76" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="17.25">
       <c r="A77" s="8" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="17.25">
       <c r="A78" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>200</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
-        <v>201</v>
+        <v>297</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="17.25">
       <c r="A79" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="17.25">
       <c r="A80" s="8" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>178</v>
+        <v>301</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17.25">
       <c r="A81" s="8" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="17.25">
       <c r="A82" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17.25">
-      <c r="A83" s="8" t="s">
-        <v>63</v>
+      <c r="A83" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17.25">
-      <c r="A84" s="8" t="s">
-        <v>64</v>
+      <c r="A84" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25">
       <c r="A85" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>204</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
-        <v>205</v>
-      </c>
+      <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25">
       <c r="A86" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>322</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F86" s="2">
-        <v>563282</v>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25">
       <c r="A87" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>157</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25">
-      <c r="A88" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="A88" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17.25">
-      <c r="A89" s="8" t="s">
-        <v>68</v>
+      <c r="A89" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>324</v>
+        <v>170</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17.25">
       <c r="A90" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17.25">
       <c r="A91" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17.25">
       <c r="A92" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17.25">
       <c r="A93" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>159</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17.25">
       <c r="A94" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>151</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17.25">
       <c r="A95" s="8" t="s">
-        <v>98</v>
+        <v>322</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>194</v>
+        <v>414</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>195</v>
+        <v>415</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17.25">
       <c r="A96" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17.25">
       <c r="A97" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17.25">
       <c r="A98" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>324</v>
+        <v>149</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17.25">
       <c r="A99" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17.25">
       <c r="A100" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
-        <v>72</v>
+        <v>302</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17.25">
       <c r="A101" s="8" t="s">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>81</v>
+        <v>416</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>82</v>
+        <v>417</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>245</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17.25">
       <c r="A102" s="8" t="s">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>129</v>
+        <v>416</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>130</v>
+        <v>417</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17.25">
       <c r="A103" s="8" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17.25">
       <c r="A104" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>431</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="2" t="s">
-        <v>432</v>
-      </c>
+      <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
-        <v>336</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17.25">
       <c r="A105" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>433</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="2" t="s">
-        <v>434</v>
-      </c>
+      <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>340</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17.25">
       <c r="A106" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>433</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="2" t="s">
-        <v>434</v>
-      </c>
+      <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>342</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17.25">
       <c r="A107" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>435</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="2" t="s">
-        <v>436</v>
-      </c>
+      <c r="E107" s="2"/>
       <c r="F107" s="2" t="s">
-        <v>344</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17.25">
       <c r="A108" s="8" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17.25">
       <c r="A109" s="8" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17.25">
       <c r="A110" s="8" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17.25">
       <c r="A111" s="8" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="2" t="s">
-        <v>439</v>
-      </c>
+      <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17.25">
       <c r="A112" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>440</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="E112" s="2"/>
       <c r="F112" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17.25">
       <c r="A113" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>442</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="17.25">
       <c r="A114" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>433</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="2" t="s">
-        <v>434</v>
-      </c>
+      <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17.25">
       <c r="A115" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>443</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="2" t="s">
-        <v>444</v>
-      </c>
+      <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17.25">
       <c r="A116" s="8" t="s">
-        <v>325</v>
+        <v>56</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>445</v>
+        <v>185</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
-        <v>446</v>
+        <v>186</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>326</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17.25">
       <c r="A117" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>447</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="2" t="s">
-        <v>448</v>
-      </c>
+      <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17.25">
       <c r="A118" s="8" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>332</v>
+        <v>407</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17.25">
       <c r="A119" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B119" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>473</v>
+      </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
+      <c r="E119" s="2" t="s">
+        <v>500</v>
+      </c>
       <c r="F119" s="2" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17.25">
       <c r="A120" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B120" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
+      <c r="E120" s="2" t="s">
+        <v>505</v>
+      </c>
       <c r="F120" s="2" t="s">
-        <v>360</v>
+        <v>232</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17.25">
       <c r="A121" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B121" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+      <c r="E121" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="F121" s="2" t="s">
-        <v>362</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17.25">
       <c r="A122" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="B122" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
+      <c r="E122" s="2" t="s">
+        <v>505</v>
+      </c>
       <c r="F122" s="2" t="s">
-        <v>364</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17.25">
       <c r="A123" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B123" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
+      <c r="E123" s="2" t="s">
+        <v>497</v>
+      </c>
       <c r="F123" s="2" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17.25">
       <c r="A124" s="8" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17.25">
       <c r="A125" s="8" t="s">
-        <v>381</v>
+        <v>61</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>453</v>
+        <v>184</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>382</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17.25">
       <c r="A126" s="8" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17.25">
       <c r="A127" s="8" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17.25">
       <c r="A128" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>459</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>390</v>
+        <v>212</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="17.25">
       <c r="A129" s="8" t="s">
-        <v>373</v>
+        <v>101</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>461</v>
+        <v>165</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>374</v>
+        <v>213</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="17.25">
       <c r="A130" s="8" t="s">
-        <v>369</v>
+        <v>100</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>464</v>
+        <v>190</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>370</v>
+        <v>214</v>
       </c>
       <c r="H130" s="2"/>
     </row>
     <row r="131" spans="1:8" ht="17.25">
       <c r="A131" s="8" t="s">
-        <v>379</v>
+        <v>105</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>465</v>
+        <v>117</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>380</v>
+        <v>215</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="17.25">
       <c r="A132" s="8" t="s">
-        <v>367</v>
+        <v>63</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>467</v>
+        <v>178</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2" t="s">
-        <v>468</v>
+        <v>506</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>368</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="17.25">
       <c r="A133" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>470</v>
@@ -4133,361 +4131,363 @@
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="17.25">
       <c r="A134" s="8" t="s">
-        <v>377</v>
+        <v>64</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>471</v>
+        <v>187</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>378</v>
+        <v>228</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="17.25">
       <c r="A135" s="8" t="s">
-        <v>393</v>
+        <v>65</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>473</v>
+        <v>187</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>394</v>
+        <v>227</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="17.25">
       <c r="A136" s="8" t="s">
-        <v>395</v>
+        <v>116</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>475</v>
+        <v>303</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>396</v>
+        <v>504</v>
+      </c>
+      <c r="F136" s="2">
+        <v>563282</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="17.25">
       <c r="A137" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B137" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>472</v>
+      </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="17.25">
       <c r="A138" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B138" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+      <c r="E138" s="2" t="s">
+        <v>501</v>
+      </c>
       <c r="F138" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="17.25">
       <c r="A139" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="17.25">
       <c r="A140" s="8" t="s">
-        <v>403</v>
+        <v>66</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>480</v>
+        <v>147</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>404</v>
+        <v>194</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="17.25">
       <c r="A141" s="8" t="s">
-        <v>405</v>
+        <v>67</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>482</v>
+        <v>147</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>406</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="17.25">
       <c r="A142" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>484</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>408</v>
+        <v>219</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="17.25">
       <c r="A143" s="8" t="s">
-        <v>409</v>
+        <v>69</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>486</v>
+        <v>81</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>410</v>
+        <v>221</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="17.25">
       <c r="A144" s="8" t="s">
-        <v>411</v>
+        <v>70</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>488</v>
+        <v>71</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>412</v>
+        <v>223</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="17.25">
       <c r="A145" s="8" t="s">
-        <v>413</v>
+        <v>72</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>490</v>
+        <v>80</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>414</v>
+        <v>225</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="17.25">
       <c r="A146" s="8" t="s">
-        <v>415</v>
+        <v>73</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>492</v>
+        <v>148</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>416</v>
+        <v>230</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="17.25">
       <c r="A147" s="8" t="s">
-        <v>417</v>
+        <v>74</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>494</v>
+        <v>142</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>418</v>
+        <v>231</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="17.25">
       <c r="A148" s="8" t="s">
-        <v>419</v>
+        <v>94</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>494</v>
+        <v>179</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="17.25">
       <c r="A149" s="8" t="s">
-        <v>391</v>
+        <v>95</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>496</v>
+        <v>133</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>392</v>
+        <v>217</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="17.25">
       <c r="A150" s="8" t="s">
-        <v>421</v>
+        <v>110</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>498</v>
+        <v>141</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>422</v>
+        <v>218</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="17.25">
       <c r="A151" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>500</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>424</v>
+        <v>220</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="17.25">
       <c r="A152" s="8" t="s">
-        <v>425</v>
+        <v>76</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>426</v>
+        <v>222</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="17.25">
       <c r="A153" s="8" t="s">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>504</v>
+        <v>71</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>428</v>
+        <v>224</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="17.25">
       <c r="A154" s="8" t="s">
-        <v>429</v>
+        <v>78</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>506</v>
+        <v>80</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>430</v>
+        <v>226</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="17.25">
       <c r="A155" s="8" t="s">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>508</v>
+        <v>124</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>384</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F102">
-    <sortCondition ref="A1:A102"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F155">
+    <sortCondition ref="A1:A155"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
@@ -4514,7 +4514,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4544,7 +4544,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -4604,22 +4604,22 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -4639,32 +4639,32 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -4684,32 +4684,32 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -4724,52 +4724,52 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -4779,7 +4779,7 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -4794,7 +4794,7 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -4869,7 +4869,7 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -4884,12 +4884,12 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:1">

--- a/label_library.xlsx
+++ b/label_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E0C40D-7AA0-4ABA-98AB-0667B2887121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB12CEB-7DE9-4ED4-9EBE-E96083163266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$155</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1575,7 +1575,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1597,8 +1597,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1608,6 +1629,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1655,12 +1682,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1690,11 +1714,135 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1988,2511 +2136,2902 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="17.25">
-      <c r="A2" s="8" t="s">
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.25">
+      <c r="A2" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="17.25">
-      <c r="A3" s="10" t="s">
+      <c r="G2" s="1">
+        <v>32</v>
+      </c>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.25">
+      <c r="A3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.25">
-      <c r="A4" s="11" t="s">
+      <c r="G3" s="1">
+        <v>28</v>
+      </c>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.25">
+      <c r="A4" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.25">
-      <c r="A5" s="8" t="s">
+      <c r="G4" s="1">
+        <v>28</v>
+      </c>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.25">
+      <c r="A5" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.25">
-      <c r="A6" s="8" t="s">
+      <c r="G5" s="1">
+        <v>32</v>
+      </c>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.25">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="17.25">
-      <c r="A7" s="8" t="s">
+      <c r="G6" s="1">
+        <v>28</v>
+      </c>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.25">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.25">
-      <c r="A8" s="10" t="s">
+      <c r="G7" s="1">
+        <v>28</v>
+      </c>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.25">
+      <c r="A8" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.25">
-      <c r="A9" s="8" t="s">
+      <c r="G8" s="1">
+        <v>28</v>
+      </c>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.25">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.25">
-      <c r="A10" s="10" t="s">
+      <c r="G9" s="1">
+        <v>28</v>
+      </c>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.25">
+      <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.25">
-      <c r="A11" s="8" t="s">
+      <c r="G10" s="1">
+        <v>28</v>
+      </c>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.25">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="17.25">
-      <c r="A12" s="8" t="s">
+      <c r="G11" s="1">
+        <v>28</v>
+      </c>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="17.25">
+      <c r="A12" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="17.25">
-      <c r="A13" s="8" t="s">
+      <c r="G12" s="1">
+        <v>32</v>
+      </c>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.25">
+      <c r="A13" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="17.25">
-      <c r="A14" s="8" t="s">
+      <c r="G13" s="1">
+        <v>32</v>
+      </c>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.25">
+      <c r="A14" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="17.25">
-      <c r="A15" s="8" t="s">
+      <c r="G14" s="1">
+        <v>32</v>
+      </c>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.25">
+      <c r="A15" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="17.25">
-      <c r="A16" s="8" t="s">
+      <c r="G15" s="1">
+        <v>32</v>
+      </c>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.25">
+      <c r="A16" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="17.25">
-      <c r="A17" s="10" t="s">
+      <c r="G16" s="1">
+        <v>32</v>
+      </c>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.25">
+      <c r="A17" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="17.25">
-      <c r="A18" s="10" t="s">
+      <c r="G17" s="1">
+        <v>28</v>
+      </c>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.25">
+      <c r="A18" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" ht="17.25">
-      <c r="A19" s="10" t="s">
+      <c r="G18" s="1">
+        <v>28</v>
+      </c>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="17.25">
+      <c r="A19" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" ht="17.25">
-      <c r="A20" s="10" t="s">
+      <c r="G19" s="1">
+        <v>28</v>
+      </c>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.25">
+      <c r="A20" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" ht="17.25">
-      <c r="A21" s="8" t="s">
+      <c r="G20" s="1">
+        <v>28</v>
+      </c>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="17.25">
+      <c r="A21" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" ht="17.25">
-      <c r="A22" s="8" t="s">
+      <c r="G21" s="1">
+        <v>32</v>
+      </c>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.25">
+      <c r="A22" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" ht="17.25">
-      <c r="A23" s="8" t="s">
+      <c r="G22" s="1">
+        <v>32</v>
+      </c>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="17.25">
+      <c r="A23" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" ht="17.25">
-      <c r="A24" s="8" t="s">
+      <c r="G23" s="1">
+        <v>32</v>
+      </c>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="17.25">
+      <c r="A24" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" ht="17.25">
-      <c r="A25" s="8" t="s">
+      <c r="G24" s="1">
+        <v>32</v>
+      </c>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" ht="17.25">
+      <c r="A25" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" ht="17.25">
-      <c r="A26" s="8" t="s">
+      <c r="G25" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17.25">
+      <c r="A26" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" ht="17.25">
-      <c r="A27" s="8" t="s">
+      <c r="G26" s="1">
+        <v>32</v>
+      </c>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" ht="17.25">
+      <c r="A27" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" ht="17.25">
-      <c r="A28" s="8" t="s">
+      <c r="G27" s="1">
+        <v>32</v>
+      </c>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.25">
+      <c r="A28" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" ht="17.25">
-      <c r="A29" s="8" t="s">
+      <c r="G28" s="1">
+        <v>32</v>
+      </c>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.25">
+      <c r="A29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12" ht="17.25">
-      <c r="A30" s="10" t="s">
+      <c r="G29" s="1">
+        <v>28</v>
+      </c>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" ht="17.25">
+      <c r="A30" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" ht="17.25">
-      <c r="A31" s="8" t="s">
+      <c r="G30" s="1">
+        <v>28</v>
+      </c>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" ht="17.25">
+      <c r="A31" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12" ht="17.25">
-      <c r="A32" s="8" t="s">
+      <c r="G31" s="1">
+        <v>32</v>
+      </c>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" ht="17.25">
+      <c r="A32" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12" ht="17.25">
-      <c r="A33" s="8" t="s">
+      <c r="G32" s="1">
+        <v>32</v>
+      </c>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" ht="17.25">
+      <c r="A33" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:12" ht="17.25">
-      <c r="A34" s="8" t="s">
+      <c r="G33" s="1">
+        <v>32</v>
+      </c>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" ht="17.25">
+      <c r="A34" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12" ht="17.25">
-      <c r="A35" s="8" t="s">
+      <c r="G34" s="1">
+        <v>32</v>
+      </c>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" ht="17.25">
+      <c r="A35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12" ht="17.25">
-      <c r="A36" s="8" t="s">
+      <c r="G35" s="1">
+        <v>28</v>
+      </c>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" ht="17.25">
+      <c r="A36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:12" ht="17.25">
-      <c r="A37" s="8" t="s">
+      <c r="G36" s="1">
+        <v>28</v>
+      </c>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" ht="17.25">
+      <c r="A37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12" ht="17.25">
-      <c r="A38" s="8" t="s">
+      <c r="G37" s="1">
+        <v>28</v>
+      </c>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" ht="17.25">
+      <c r="A38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12" ht="17.25">
-      <c r="A39" s="8" t="s">
+      <c r="G38" s="1">
+        <v>28</v>
+      </c>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" ht="17.25">
+      <c r="A39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="1:12" ht="17.25">
-      <c r="A40" s="8" t="s">
+      <c r="G39" s="1">
+        <v>28</v>
+      </c>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" ht="17.25">
+      <c r="A40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="1:12" ht="17.25">
-      <c r="A41" s="8" t="s">
+      <c r="G40" s="1">
+        <v>28</v>
+      </c>
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="1:13" ht="17.25">
+      <c r="A41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="1:12" ht="17.25">
-      <c r="A42" s="8" t="s">
+      <c r="G41" s="1">
+        <v>28</v>
+      </c>
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="1:13" ht="17.25">
+      <c r="A42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="1:12" ht="17.25">
-      <c r="A43" s="8" t="s">
+      <c r="G42" s="1">
+        <v>28</v>
+      </c>
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="1:13" ht="17.25">
+      <c r="A43" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:12" ht="17.25">
-      <c r="A44" s="8" t="s">
+      <c r="G43" s="1">
+        <v>32</v>
+      </c>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="1:13" ht="17.25">
+      <c r="A44" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2" t="s">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="1:12" ht="17.25">
-      <c r="A45" s="8" t="s">
+      <c r="G44" s="1">
+        <v>32</v>
+      </c>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" ht="17.25">
+      <c r="A45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="1:12" ht="17.25">
-      <c r="A46" s="10" t="s">
+      <c r="G45" s="1">
+        <v>28</v>
+      </c>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" ht="17.25">
+      <c r="A46" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="1:12" ht="17.25">
-      <c r="A47" s="10" t="s">
+      <c r="G46" s="1">
+        <v>28</v>
+      </c>
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="1:13" ht="17.25">
+      <c r="A47" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2" t="s">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="1:12" ht="17.25">
-      <c r="A48" s="10" t="s">
+      <c r="G47" s="1">
+        <v>28</v>
+      </c>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13" ht="17.25">
+      <c r="A48" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-    </row>
-    <row r="49" spans="1:12" ht="17.25">
-      <c r="A49" s="10" t="s">
+      <c r="G48" s="1">
+        <v>28</v>
+      </c>
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="1:13" ht="17.25">
+      <c r="A49" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-    </row>
-    <row r="50" spans="1:12" ht="17.25">
-      <c r="A50" s="8" t="s">
+      <c r="G49" s="1">
+        <v>28</v>
+      </c>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:13" ht="17.25">
+      <c r="A50" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="1:12" ht="17.25">
-      <c r="A51" s="8" t="s">
+      <c r="G50" s="1">
+        <v>28</v>
+      </c>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:13" ht="17.25">
+      <c r="A51" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" ht="17.25">
-      <c r="A52" s="8" t="s">
+      <c r="G51" s="1">
+        <v>32</v>
+      </c>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="1:13" ht="17.25">
+      <c r="A52" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="1:12" ht="17.25">
-      <c r="A53" s="8" t="s">
+      <c r="G52" s="1">
+        <v>32</v>
+      </c>
+      <c r="M52" s="12"/>
+    </row>
+    <row r="53" spans="1:13" ht="17.25">
+      <c r="A53" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="1:12" ht="17.25">
-      <c r="A54" s="8" t="s">
+      <c r="G53" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="17.25">
+      <c r="A54" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-    </row>
-    <row r="55" spans="1:12" ht="17.25">
-      <c r="A55" s="8" t="s">
+      <c r="G54" s="1">
+        <v>28</v>
+      </c>
+      <c r="M54" s="12"/>
+    </row>
+    <row r="55" spans="1:13" ht="17.25">
+      <c r="A55" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="1:12" ht="17.25">
-      <c r="A56" s="8" t="s">
+      <c r="G55" s="1">
+        <v>32</v>
+      </c>
+      <c r="M55" s="12"/>
+    </row>
+    <row r="56" spans="1:13" ht="17.25">
+      <c r="A56" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2" t="s">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="1:12" ht="17.25">
-      <c r="A57" s="8" t="s">
+      <c r="G56" s="1">
+        <v>32</v>
+      </c>
+      <c r="M56" s="12"/>
+    </row>
+    <row r="57" spans="1:13" ht="17.25">
+      <c r="A57" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2" t="s">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="1:12" ht="17.25">
-      <c r="A58" s="8" t="s">
+      <c r="G57" s="1">
+        <v>32</v>
+      </c>
+      <c r="M57" s="12"/>
+    </row>
+    <row r="58" spans="1:13" ht="17.25">
+      <c r="A58" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-    </row>
-    <row r="59" spans="1:12" ht="17.25">
-      <c r="A59" s="8" t="s">
+      <c r="G58" s="1">
+        <v>32</v>
+      </c>
+      <c r="M58" s="12"/>
+    </row>
+    <row r="59" spans="1:13" ht="17.25">
+      <c r="A59" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-    </row>
-    <row r="60" spans="1:12" ht="17.25">
-      <c r="A60" s="8" t="s">
+      <c r="G59" s="1">
+        <v>28</v>
+      </c>
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="1:13" ht="17.25">
+      <c r="A60" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-    </row>
-    <row r="61" spans="1:12" ht="17.25">
-      <c r="A61" s="8" t="s">
+      <c r="G60" s="1">
+        <v>28</v>
+      </c>
+      <c r="M60" s="12"/>
+    </row>
+    <row r="61" spans="1:13" ht="17.25">
+      <c r="A61" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-    </row>
-    <row r="62" spans="1:12" ht="17.25">
-      <c r="A62" s="8" t="s">
+      <c r="G61" s="1">
+        <v>32</v>
+      </c>
+      <c r="M61" s="12"/>
+    </row>
+    <row r="62" spans="1:13" ht="17.25">
+      <c r="A62" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:12" ht="17.25">
-      <c r="A63" s="8" t="s">
+      <c r="G62" s="1">
+        <v>28</v>
+      </c>
+      <c r="M62" s="12"/>
+    </row>
+    <row r="63" spans="1:13" ht="17.25">
+      <c r="A63" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2" t="s">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-    </row>
-    <row r="64" spans="1:12" ht="17.25">
-      <c r="A64" s="8" t="s">
+      <c r="G63" s="1">
+        <v>28</v>
+      </c>
+      <c r="M63" s="12"/>
+    </row>
+    <row r="64" spans="1:13" ht="17.25">
+      <c r="A64" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2" t="s">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="1:12" ht="17.25">
-      <c r="A65" s="8" t="s">
+      <c r="G64" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="17.25">
+      <c r="A65" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2" t="s">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="1:12" ht="17.25">
-      <c r="A66" s="8" t="s">
+      <c r="G65" s="1">
+        <v>28</v>
+      </c>
+      <c r="M65" s="12"/>
+    </row>
+    <row r="66" spans="1:13" ht="17.25">
+      <c r="A66" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="1:12" ht="17.25">
-      <c r="A67" s="8" t="s">
+      <c r="G66" s="1">
+        <v>32</v>
+      </c>
+      <c r="M66" s="12"/>
+    </row>
+    <row r="67" spans="1:13" ht="17.25">
+      <c r="A67" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="1:12" ht="17.25">
-      <c r="A68" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
+      <c r="G67" s="1">
+        <v>32</v>
+      </c>
+      <c r="M67" s="12"/>
+    </row>
+    <row r="68" spans="1:13" ht="17.25">
+      <c r="A68" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-    </row>
-    <row r="69" spans="1:12" ht="17.25">
-      <c r="A69" s="10" t="s">
+      <c r="G68" s="1">
+        <v>28</v>
+      </c>
+      <c r="M68" s="12"/>
+    </row>
+    <row r="69" spans="1:13" ht="17.25">
+      <c r="A69" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="1:12" ht="17.25">
-      <c r="A70" s="10" t="s">
+      <c r="G69" s="1">
+        <v>28</v>
+      </c>
+      <c r="M69" s="12"/>
+    </row>
+    <row r="70" spans="1:13" ht="17.25">
+      <c r="A70" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2" t="s">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="1:12" ht="17.25">
-      <c r="A71" s="10" t="s">
+      <c r="G70" s="1">
+        <v>28</v>
+      </c>
+      <c r="M70" s="12"/>
+    </row>
+    <row r="71" spans="1:13" ht="17.25">
+      <c r="A71" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-    </row>
-    <row r="72" spans="1:12" ht="17.25">
-      <c r="A72" s="8" t="s">
+      <c r="G71" s="1">
+        <v>28</v>
+      </c>
+      <c r="M71" s="12"/>
+    </row>
+    <row r="72" spans="1:13" ht="17.25">
+      <c r="A72" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-    </row>
-    <row r="73" spans="1:12" ht="17.25">
-      <c r="A73" s="10" t="s">
+      <c r="G72" s="1">
+        <v>28</v>
+      </c>
+      <c r="M72" s="12"/>
+    </row>
+    <row r="73" spans="1:13" ht="17.25">
+      <c r="A73" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2" t="s">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="1:12" ht="17.25">
-      <c r="A74" s="8" t="s">
+      <c r="G73" s="1">
+        <v>28</v>
+      </c>
+      <c r="M73" s="12"/>
+    </row>
+    <row r="74" spans="1:13" ht="17.25">
+      <c r="A74" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2" t="s">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="17.25">
-      <c r="A75" s="8" t="s">
+      <c r="G74" s="1">
+        <v>28</v>
+      </c>
+      <c r="M74" s="12"/>
+    </row>
+    <row r="75" spans="1:13" ht="17.25">
+      <c r="A75" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2" t="s">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="17.25">
-      <c r="A76" s="8" t="s">
+      <c r="G75" s="1">
+        <v>28</v>
+      </c>
+      <c r="M75" s="12"/>
+    </row>
+    <row r="76" spans="1:13" ht="17.25">
+      <c r="A76" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2" t="s">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="17.25">
-      <c r="A77" s="8" t="s">
+      <c r="G76" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="17.25">
+      <c r="A77" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="17.25">
-      <c r="A78" s="8" t="s">
+      <c r="G77" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="17.25">
+      <c r="A78" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="17.25">
-      <c r="A79" s="8" t="s">
+      <c r="G78" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="17.25">
+      <c r="A79" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2" t="s">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="17.25">
-      <c r="A80" s="8" t="s">
+      <c r="G79" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="17.25">
+      <c r="A80" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2" t="s">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="17.25">
-      <c r="A81" s="8" t="s">
+      <c r="G80" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17.25">
+      <c r="A81" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="17.25">
-      <c r="A82" s="8" t="s">
+      <c r="G81" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="17.25">
+      <c r="A82" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2" t="s">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="17.25">
-      <c r="A83" s="10" t="s">
+      <c r="G82" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17.25">
+      <c r="A83" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="17.25">
-      <c r="A84" s="10" t="s">
+      <c r="G83" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17.25">
+      <c r="A84" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2" t="s">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="17.25">
-      <c r="A85" s="8" t="s">
+      <c r="G84" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17.25">
+      <c r="A85" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2" t="s">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="17.25">
-      <c r="A86" s="8" t="s">
+      <c r="G85" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17.25">
+      <c r="A86" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2" t="s">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="17.25">
-      <c r="A87" s="8" t="s">
+      <c r="G86" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="17.25">
+      <c r="A87" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2" t="s">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="17.25">
-      <c r="A88" s="10" t="s">
+      <c r="G87" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="17.25">
+      <c r="A88" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2" t="s">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="17.25">
-      <c r="A89" s="10" t="s">
+      <c r="G88" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17.25">
+      <c r="A89" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2" t="s">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F89" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="17.25">
-      <c r="A90" s="8" t="s">
+      <c r="G89" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17.25">
+      <c r="A90" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2" t="s">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="17.25">
-      <c r="A91" s="8" t="s">
+      <c r="G90" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="17.25">
+      <c r="A91" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2" t="s">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="17.25">
-      <c r="A92" s="8" t="s">
+      <c r="G91" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="17.25">
+      <c r="A92" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2" t="s">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="17.25">
-      <c r="A93" s="8" t="s">
+      <c r="G92" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17.25">
+      <c r="A93" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2" t="s">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="17.25">
-      <c r="A94" s="8" t="s">
+      <c r="G93" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="17.25">
+      <c r="A94" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2" t="s">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="17.25">
-      <c r="A95" s="8" t="s">
+      <c r="G94" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="17.25">
+      <c r="A95" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2" t="s">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F95" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="17.25">
-      <c r="A96" s="8" t="s">
+      <c r="G95" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="17.25">
+      <c r="A96" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2" t="s">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F96" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="17.25">
-      <c r="A97" s="8" t="s">
+      <c r="G96" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="17.25">
+      <c r="A97" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2" t="s">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="17.25">
-      <c r="A98" s="8" t="s">
+      <c r="G97" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="17.25">
+      <c r="A98" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2" t="s">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F98" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="17.25">
-      <c r="A99" s="8" t="s">
+      <c r="G98" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="17.25">
+      <c r="A99" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2" t="s">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F99" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="17.25">
-      <c r="A100" s="8" t="s">
+      <c r="G99" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="17.25">
+      <c r="A100" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2" t="s">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F100" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="17.25">
-      <c r="A101" s="8" t="s">
+      <c r="G100" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="17.25">
+      <c r="A101" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2" t="s">
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F101" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="17.25">
-      <c r="A102" s="8" t="s">
+      <c r="G101" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="17.25">
+      <c r="A102" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2" t="s">
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F102" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="17.25">
-      <c r="A103" s="8" t="s">
+      <c r="G102" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="17.25">
+      <c r="A103" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2" t="s">
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="F103" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="17.25">
-      <c r="A104" s="8" t="s">
+      <c r="G103" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="17.25">
+      <c r="A104" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2" t="s">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="17.25">
-      <c r="A105" s="8" t="s">
+      <c r="G104" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="17.25">
+      <c r="A105" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2" t="s">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="17.25">
-      <c r="A106" s="8" t="s">
+      <c r="G105" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="17.25">
+      <c r="A106" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2" t="s">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="17.25">
-      <c r="A107" s="8" t="s">
+      <c r="G106" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="17.25">
+      <c r="A107" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2" t="s">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="17.25">
-      <c r="A108" s="8" t="s">
+      <c r="G107" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="17.25">
+      <c r="A108" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2" t="s">
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F108" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="17.25">
-      <c r="A109" s="8" t="s">
+      <c r="G108" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="17.25">
+      <c r="A109" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2" t="s">
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F109" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="17.25">
-      <c r="A110" s="8" t="s">
+      <c r="G109" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="17.25">
+      <c r="A110" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2" t="s">
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="F110" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="17.25">
-      <c r="A111" s="8" t="s">
+      <c r="G110" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="17.25">
+      <c r="A111" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2" t="s">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="17.25">
-      <c r="A112" s="8" t="s">
+      <c r="G111" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="17.25">
+      <c r="A112" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2" t="s">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="17.25">
-      <c r="A113" s="8" t="s">
+      <c r="G112" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="17.25">
+      <c r="A113" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2" t="s">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="17.25">
-      <c r="A114" s="8" t="s">
+      <c r="G113" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="17.25">
+      <c r="A114" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2" t="s">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="17.25">
-      <c r="A115" s="8" t="s">
+      <c r="G114" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="17.25">
+      <c r="A115" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2" t="s">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="17.25">
-      <c r="A116" s="8" t="s">
+      <c r="G115" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="17.25">
+      <c r="A116" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2" t="s">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="F116" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="17.25">
-      <c r="A117" s="8" t="s">
+      <c r="G116" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="17.25">
+      <c r="A117" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2" t="s">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="17.25">
-      <c r="A118" s="8" t="s">
+      <c r="G117" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="17.25">
+      <c r="A118" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2" t="s">
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="F118" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="17.25">
-      <c r="A119" s="8" t="s">
+      <c r="G118" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="17.25">
+      <c r="A119" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2" t="s">
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F119" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="17.25">
-      <c r="A120" s="8" t="s">
+      <c r="G119" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="17.25">
+      <c r="A120" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2" t="s">
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="F120" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="17.25">
-      <c r="A121" s="8" t="s">
+      <c r="G120" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="17.25">
+      <c r="A121" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2" t="s">
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="F121" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="17.25">
-      <c r="A122" s="8" t="s">
+      <c r="G121" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="17.25">
+      <c r="A122" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2" t="s">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="F122" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="17.25">
-      <c r="A123" s="8" t="s">
+      <c r="G122" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="17.25">
+      <c r="A123" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2" t="s">
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="F123" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="17.25">
-      <c r="A124" s="8" t="s">
+      <c r="G123" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="17.25">
+      <c r="A124" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2" t="s">
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="F124" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="17.25">
-      <c r="A125" s="8" t="s">
+      <c r="G124" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="17.25">
+      <c r="A125" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2" t="s">
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="F125" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="17.25">
-      <c r="A126" s="8" t="s">
+      <c r="G125" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="17.25">
+      <c r="A126" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2" t="s">
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="F126" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="17.25">
-      <c r="A127" s="8" t="s">
+      <c r="G126" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="17.25">
+      <c r="A127" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2" t="s">
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="F127" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="17.25">
-      <c r="A128" s="8" t="s">
+      <c r="G127" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="17.25">
+      <c r="A128" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2" t="s">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F128" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="17.25">
-      <c r="A129" s="8" t="s">
+      <c r="G128" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="17.25">
+      <c r="A129" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2" t="s">
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="F129" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" ht="17.25">
-      <c r="A130" s="8" t="s">
+      <c r="G129" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="17.25">
+      <c r="A130" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2" t="s">
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="F130" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H130" s="2"/>
-    </row>
-    <row r="131" spans="1:8" ht="17.25">
-      <c r="A131" s="8" t="s">
+      <c r="G130" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="17.25">
+      <c r="A131" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2" t="s">
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="F131" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="17.25">
-      <c r="A132" s="8" t="s">
+      <c r="G131" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="17.25">
+      <c r="A132" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2" t="s">
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="F132" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="17.25">
-      <c r="A133" s="8" t="s">
+      <c r="G132" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="17.25">
+      <c r="A133" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2" t="s">
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="F133" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="17.25">
-      <c r="A134" s="8" t="s">
+      <c r="G133" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="17.25">
+      <c r="A134" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2" t="s">
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="F134" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="17.25">
-      <c r="A135" s="8" t="s">
+      <c r="G134" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="17.25">
+      <c r="A135" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2" t="s">
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="F135" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="17.25">
-      <c r="A136" s="8" t="s">
+      <c r="G135" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="17.25">
+      <c r="A136" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2" t="s">
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136" s="1">
         <v>563282</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="17.25">
-      <c r="A137" s="8" t="s">
+      <c r="G136" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="17.25">
+      <c r="A137" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2" t="s">
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="F137" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="17.25">
-      <c r="A138" s="8" t="s">
+      <c r="G137" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="17.25">
+      <c r="A138" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2" t="s">
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="F138" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="17.25">
-      <c r="A139" s="8" t="s">
+      <c r="G138" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="17.25">
+      <c r="A139" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2" t="s">
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="F139" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="17.25">
-      <c r="A140" s="8" t="s">
+      <c r="G139" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="17.25">
+      <c r="A140" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2" t="s">
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="F140" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="17.25">
-      <c r="A141" s="8" t="s">
+      <c r="G140" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="17.25">
+      <c r="A141" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2" t="s">
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F141" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="17.25">
-      <c r="A142" s="8" t="s">
+      <c r="G141" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="17.25">
+      <c r="A142" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2" t="s">
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="F142" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="17.25">
-      <c r="A143" s="8" t="s">
+      <c r="G142" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="17.25">
+      <c r="A143" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2" t="s">
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="F143" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" ht="17.25">
-      <c r="A144" s="8" t="s">
+      <c r="G143" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="17.25">
+      <c r="A144" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2" t="s">
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="F144" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="17.25">
-      <c r="A145" s="8" t="s">
+      <c r="G144" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="17.25">
+      <c r="A145" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2" t="s">
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="F145" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="17.25">
-      <c r="A146" s="8" t="s">
+      <c r="G145" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="17.25">
+      <c r="A146" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2" t="s">
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="F146" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="17.25">
-      <c r="A147" s="8" t="s">
+      <c r="G146" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="17.25">
+      <c r="A147" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2" t="s">
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="F147" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="17.25">
-      <c r="A148" s="8" t="s">
+      <c r="G147" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="17.25">
+      <c r="A148" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2" t="s">
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="F148" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="17.25">
-      <c r="A149" s="8" t="s">
+      <c r="G148" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="17.25">
+      <c r="A149" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2" t="s">
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="F149" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="17.25">
-      <c r="A150" s="8" t="s">
+      <c r="G149" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="17.25">
+      <c r="A150" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2" t="s">
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F150" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="17.25">
-      <c r="A151" s="8" t="s">
+      <c r="G150" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="17.25">
+      <c r="A151" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2" t="s">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="F151" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="17.25">
-      <c r="A152" s="8" t="s">
+      <c r="G151" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="17.25">
+      <c r="A152" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2" t="s">
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="F152" s="2" t="s">
+      <c r="F152" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="17.25">
-      <c r="A153" s="8" t="s">
+      <c r="G152" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="17.25">
+      <c r="A153" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2" t="s">
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="F153" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="17.25">
-      <c r="A154" s="8" t="s">
+      <c r="G153" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="17.25">
+      <c r="A154" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2" t="s">
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="F154" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="17.25">
-      <c r="A155" s="8" t="s">
+      <c r="G154" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="17.25">
+      <c r="A155" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2" t="s">
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F155" s="2" t="s">
+      <c r="F155" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="G155" s="1">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F155">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G155">
     <sortCondition ref="A1:A155"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576 A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4509,406 +5048,406 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>23</v>
       </c>
     </row>

--- a/label_library.xlsx
+++ b/label_library.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.han\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFDCB5D-7B3F-4E1D-960A-CB208B004614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A258D70-0C23-41CF-8687-3072BA5EE1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$155</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="602">
   <si>
     <t>Product Name</t>
   </si>
@@ -1836,13 +1837,19 @@
   </si>
   <si>
     <t>MD2</t>
+  </si>
+  <si>
+    <t>Ver</t>
+  </si>
+  <si>
+    <t>0.3.19.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1852,28 +1859,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF404040"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1920,30 +1934,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2256,11 +2273,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K140" sqref="K140"/>
+      <selection pane="bottomRight" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5441,11 +5458,35 @@
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
     <cfRule type="duplicateValues" dxfId="2" priority="6"/>
     <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AFA60C-465D-4019-93D1-73B78555E29C}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="8" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>